--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Lpl-Lrp1.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Lpl-Lrp1.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>41.954676393695</v>
+        <v>46.48074800000001</v>
       </c>
       <c r="H2">
-        <v>41.954676393695</v>
+        <v>139.442244</v>
       </c>
       <c r="I2">
-        <v>0.1373453507485584</v>
+        <v>0.1473944418036112</v>
       </c>
       <c r="J2">
-        <v>0.1373453507485584</v>
+        <v>0.1473944418036112</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.07906466649016</v>
+        <v>23.63579766666667</v>
       </c>
       <c r="N2">
-        <v>7.07906466649016</v>
+        <v>70.907393</v>
       </c>
       <c r="O2">
-        <v>0.02217750240725959</v>
+        <v>0.06827844587621175</v>
       </c>
       <c r="P2">
-        <v>0.02217750240725959</v>
+        <v>0.06827844587621175</v>
       </c>
       <c r="Q2">
-        <v>296.9998672526351</v>
+        <v>1098.609555123321</v>
       </c>
       <c r="R2">
-        <v>296.9998672526351</v>
+        <v>9887.485996109894</v>
       </c>
       <c r="S2">
-        <v>0.003045976846852065</v>
+        <v>0.01006386341714231</v>
       </c>
       <c r="T2">
-        <v>0.003045976846852065</v>
+        <v>0.01006386341714231</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>41.954676393695</v>
+        <v>46.48074800000001</v>
       </c>
       <c r="H3">
-        <v>41.954676393695</v>
+        <v>139.442244</v>
       </c>
       <c r="I3">
-        <v>0.1373453507485584</v>
+        <v>0.1473944418036112</v>
       </c>
       <c r="J3">
-        <v>0.1373453507485584</v>
+        <v>0.1473944418036112</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>180.914034162936</v>
+        <v>181.2883913333334</v>
       </c>
       <c r="N3">
-        <v>180.914034162936</v>
+        <v>543.865174</v>
       </c>
       <c r="O3">
-        <v>0.5667728177633442</v>
+        <v>0.5237009467675041</v>
       </c>
       <c r="P3">
-        <v>0.5667728177633442</v>
+        <v>0.523700946767504</v>
       </c>
       <c r="Q3">
-        <v>7590.189758383862</v>
+        <v>8426.420032890053</v>
       </c>
       <c r="R3">
-        <v>7590.189758383862</v>
+        <v>75837.78029601047</v>
       </c>
       <c r="S3">
-        <v>0.07784361145045526</v>
+        <v>0.07719060872081895</v>
       </c>
       <c r="T3">
-        <v>0.07784361145045526</v>
+        <v>0.07719060872081894</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>41.954676393695</v>
+        <v>46.48074800000001</v>
       </c>
       <c r="H4">
-        <v>41.954676393695</v>
+        <v>139.442244</v>
       </c>
       <c r="I4">
-        <v>0.1373453507485584</v>
+        <v>0.1473944418036112</v>
       </c>
       <c r="J4">
-        <v>0.1373453507485584</v>
+        <v>0.1473944418036112</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>101.162170664531</v>
+        <v>111.1005463333333</v>
       </c>
       <c r="N4">
-        <v>101.162170664531</v>
+        <v>333.301639</v>
       </c>
       <c r="O4">
-        <v>0.3169238295076338</v>
+        <v>0.3209442197221123</v>
       </c>
       <c r="P4">
-        <v>0.3169238295076338</v>
+        <v>0.3209442197221123</v>
       </c>
       <c r="Q4">
-        <v>4244.226133514144</v>
+        <v>5164.036496781991</v>
       </c>
       <c r="R4">
-        <v>4244.226133514144</v>
+        <v>46476.32847103792</v>
       </c>
       <c r="S4">
-        <v>0.04352801452430227</v>
+        <v>0.04730539411603627</v>
       </c>
       <c r="T4">
-        <v>0.04352801452430227</v>
+        <v>0.04730539411603627</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>41.954676393695</v>
+        <v>46.48074800000001</v>
       </c>
       <c r="H5">
-        <v>41.954676393695</v>
+        <v>139.442244</v>
       </c>
       <c r="I5">
-        <v>0.1373453507485584</v>
+        <v>0.1473944418036112</v>
       </c>
       <c r="J5">
-        <v>0.1373453507485584</v>
+        <v>0.1473944418036112</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>30.0449964554177</v>
+        <v>30.14303933333333</v>
       </c>
       <c r="N5">
-        <v>30.0449964554177</v>
+        <v>90.42911799999999</v>
       </c>
       <c r="O5">
-        <v>0.0941258503217627</v>
+        <v>0.08707638763417187</v>
       </c>
       <c r="P5">
-        <v>0.0941258503217627</v>
+        <v>0.08707638763417187</v>
       </c>
       <c r="Q5">
-        <v>1260.528103536763</v>
+        <v>1401.071015206755</v>
       </c>
       <c r="R5">
-        <v>1260.528103536763</v>
+        <v>12609.63913686079</v>
       </c>
       <c r="S5">
-        <v>0.0129277479269488</v>
+        <v>0.01283457554961363</v>
       </c>
       <c r="T5">
-        <v>0.0129277479269488</v>
+        <v>0.01283457554961363</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>191.098315235944</v>
+        <v>192.830597</v>
       </c>
       <c r="H6">
-        <v>191.098315235944</v>
+        <v>578.4917909999999</v>
       </c>
       <c r="I6">
-        <v>0.6255909326351914</v>
+        <v>0.6114823756165045</v>
       </c>
       <c r="J6">
-        <v>0.6255909326351914</v>
+        <v>0.6114823756165044</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>7.07906466649016</v>
+        <v>23.63579766666667</v>
       </c>
       <c r="N6">
-        <v>7.07906466649016</v>
+        <v>70.907393</v>
       </c>
       <c r="O6">
-        <v>0.02217750240725959</v>
+        <v>0.06827844587621175</v>
       </c>
       <c r="P6">
-        <v>0.02217750240725959</v>
+        <v>0.06827844587621175</v>
       </c>
       <c r="Q6">
-        <v>1352.797331212569</v>
+        <v>4557.704974634539</v>
       </c>
       <c r="R6">
-        <v>1352.797331212569</v>
+        <v>41019.34477171086</v>
       </c>
       <c r="S6">
-        <v>0.01387404441447673</v>
+        <v>0.04175106628778889</v>
       </c>
       <c r="T6">
-        <v>0.01387404441447673</v>
+        <v>0.04175106628778888</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>191.098315235944</v>
+        <v>192.830597</v>
       </c>
       <c r="H7">
-        <v>191.098315235944</v>
+        <v>578.4917909999999</v>
       </c>
       <c r="I7">
-        <v>0.6255909326351914</v>
+        <v>0.6114823756165045</v>
       </c>
       <c r="J7">
-        <v>0.6255909326351914</v>
+        <v>0.6114823756165044</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>180.914034162936</v>
+        <v>181.2883913333334</v>
       </c>
       <c r="N7">
-        <v>180.914034162936</v>
+        <v>543.865174</v>
       </c>
       <c r="O7">
-        <v>0.5667728177633442</v>
+        <v>0.5237009467675041</v>
       </c>
       <c r="P7">
-        <v>0.5667728177633442</v>
+        <v>0.523700946767504</v>
       </c>
       <c r="Q7">
-        <v>34572.36713107509</v>
+        <v>34957.94872997629</v>
       </c>
       <c r="R7">
-        <v>34572.36713107509</v>
+        <v>314621.5385697866</v>
       </c>
       <c r="S7">
-        <v>0.3545679356568459</v>
+        <v>0.320233899042006</v>
       </c>
       <c r="T7">
-        <v>0.3545679356568459</v>
+        <v>0.3202338990420059</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>191.098315235944</v>
+        <v>192.830597</v>
       </c>
       <c r="H8">
-        <v>191.098315235944</v>
+        <v>578.4917909999999</v>
       </c>
       <c r="I8">
-        <v>0.6255909326351914</v>
+        <v>0.6114823756165045</v>
       </c>
       <c r="J8">
-        <v>0.6255909326351914</v>
+        <v>0.6114823756165044</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>101.162170664531</v>
+        <v>111.1005463333333</v>
       </c>
       <c r="N8">
-        <v>101.162170664531</v>
+        <v>333.301639</v>
       </c>
       <c r="O8">
-        <v>0.3169238295076338</v>
+        <v>0.3209442197221123</v>
       </c>
       <c r="P8">
-        <v>0.3169238295076338</v>
+        <v>0.3209442197221123</v>
       </c>
       <c r="Q8">
-        <v>19331.92037960291</v>
+        <v>21423.58467648282</v>
       </c>
       <c r="R8">
-        <v>19331.92037960291</v>
+        <v>192812.2620883454</v>
       </c>
       <c r="S8">
-        <v>0.198264674075997</v>
+        <v>0.1962517339160626</v>
       </c>
       <c r="T8">
-        <v>0.198264674075997</v>
+        <v>0.1962517339160626</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>191.098315235944</v>
+        <v>192.830597</v>
       </c>
       <c r="H9">
-        <v>191.098315235944</v>
+        <v>578.4917909999999</v>
       </c>
       <c r="I9">
-        <v>0.6255909326351914</v>
+        <v>0.6114823756165045</v>
       </c>
       <c r="J9">
-        <v>0.6255909326351914</v>
+        <v>0.6114823756165044</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>30.0449964554177</v>
+        <v>30.14303933333333</v>
       </c>
       <c r="N9">
-        <v>30.0449964554177</v>
+        <v>90.42911799999999</v>
       </c>
       <c r="O9">
-        <v>0.0941258503217627</v>
+        <v>0.08707638763417187</v>
       </c>
       <c r="P9">
-        <v>0.0941258503217627</v>
+        <v>0.08707638763417187</v>
       </c>
       <c r="Q9">
-        <v>5741.548203900232</v>
+        <v>5812.500270041148</v>
       </c>
       <c r="R9">
-        <v>5741.548203900232</v>
+        <v>52312.50243037032</v>
       </c>
       <c r="S9">
-        <v>0.05888427848787196</v>
+        <v>0.05324567637064703</v>
       </c>
       <c r="T9">
-        <v>0.05888427848787196</v>
+        <v>0.05324567637064703</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>57.5368862309677</v>
+        <v>60.030993</v>
       </c>
       <c r="H10">
-        <v>57.5368862309677</v>
+        <v>180.092979</v>
       </c>
       <c r="I10">
-        <v>0.1883562095966909</v>
+        <v>0.1903634318482028</v>
       </c>
       <c r="J10">
-        <v>0.1883562095966909</v>
+        <v>0.1903634318482028</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>7.07906466649016</v>
+        <v>23.63579766666667</v>
       </c>
       <c r="N10">
-        <v>7.07906466649016</v>
+        <v>70.907393</v>
       </c>
       <c r="O10">
-        <v>0.02217750240725959</v>
+        <v>0.06827844587621175</v>
       </c>
       <c r="P10">
-        <v>0.02217750240725959</v>
+        <v>0.06827844587621175</v>
       </c>
       <c r="Q10">
-        <v>407.3073383375076</v>
+        <v>1418.880404277083</v>
       </c>
       <c r="R10">
-        <v>407.3073383375076</v>
+        <v>12769.92363849375</v>
       </c>
       <c r="S10">
-        <v>0.004177270291752904</v>
+        <v>0.01299771927825744</v>
       </c>
       <c r="T10">
-        <v>0.004177270291752904</v>
+        <v>0.01299771927825744</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>57.5368862309677</v>
+        <v>60.030993</v>
       </c>
       <c r="H11">
-        <v>57.5368862309677</v>
+        <v>180.092979</v>
       </c>
       <c r="I11">
-        <v>0.1883562095966909</v>
+        <v>0.1903634318482028</v>
       </c>
       <c r="J11">
-        <v>0.1883562095966909</v>
+        <v>0.1903634318482028</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>180.914034162936</v>
+        <v>181.2883913333334</v>
       </c>
       <c r="N11">
-        <v>180.914034162936</v>
+        <v>543.865174</v>
       </c>
       <c r="O11">
-        <v>0.5667728177633442</v>
+        <v>0.5237009467675041</v>
       </c>
       <c r="P11">
-        <v>0.5667728177633442</v>
+        <v>0.523700946767504</v>
       </c>
       <c r="Q11">
-        <v>10409.23020121825</v>
+        <v>10882.9221511126</v>
       </c>
       <c r="R11">
-        <v>10409.23020121825</v>
+        <v>97946.29936001336</v>
       </c>
       <c r="S11">
-        <v>0.1067551796563396</v>
+        <v>0.09969350948881506</v>
       </c>
       <c r="T11">
-        <v>0.1067551796563396</v>
+        <v>0.09969350948881503</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>57.5368862309677</v>
+        <v>60.030993</v>
       </c>
       <c r="H12">
-        <v>57.5368862309677</v>
+        <v>180.092979</v>
       </c>
       <c r="I12">
-        <v>0.1883562095966909</v>
+        <v>0.1903634318482028</v>
       </c>
       <c r="J12">
-        <v>0.1883562095966909</v>
+        <v>0.1903634318482028</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>101.162170664531</v>
+        <v>111.1005463333333</v>
       </c>
       <c r="N12">
-        <v>101.162170664531</v>
+        <v>333.301639</v>
       </c>
       <c r="O12">
-        <v>0.3169238295076338</v>
+        <v>0.3209442197221123</v>
       </c>
       <c r="P12">
-        <v>0.3169238295076338</v>
+        <v>0.3209442197221123</v>
       </c>
       <c r="Q12">
-        <v>5820.556304402859</v>
+        <v>6669.476119232509</v>
       </c>
       <c r="R12">
-        <v>5820.556304402859</v>
+        <v>60025.28507309258</v>
       </c>
       <c r="S12">
-        <v>0.05969457125692581</v>
+        <v>0.06109604309814495</v>
       </c>
       <c r="T12">
-        <v>0.05969457125692581</v>
+        <v>0.06109604309814495</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>57.5368862309677</v>
+        <v>60.030993</v>
       </c>
       <c r="H13">
-        <v>57.5368862309677</v>
+        <v>180.092979</v>
       </c>
       <c r="I13">
-        <v>0.1883562095966909</v>
+        <v>0.1903634318482028</v>
       </c>
       <c r="J13">
-        <v>0.1883562095966909</v>
+        <v>0.1903634318482028</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>30.0449964554177</v>
+        <v>30.14303933333333</v>
       </c>
       <c r="N13">
-        <v>30.0449964554177</v>
+        <v>90.42911799999999</v>
       </c>
       <c r="O13">
-        <v>0.0941258503217627</v>
+        <v>0.08707638763417187</v>
       </c>
       <c r="P13">
-        <v>0.0941258503217627</v>
+        <v>0.08707638763417187</v>
       </c>
       <c r="Q13">
-        <v>1728.695542865196</v>
+        <v>1809.516583218058</v>
       </c>
       <c r="R13">
-        <v>1728.695542865196</v>
+        <v>16285.64924896252</v>
       </c>
       <c r="S13">
-        <v>0.01772918839167269</v>
+        <v>0.01657615998298537</v>
       </c>
       <c r="T13">
-        <v>0.01772918839167269</v>
+        <v>0.01657615998298537</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>14.8786084407789</v>
+        <v>16.00705666666667</v>
       </c>
       <c r="H14">
-        <v>14.8786084407789</v>
+        <v>48.02117</v>
       </c>
       <c r="I14">
-        <v>0.04870750701955932</v>
+        <v>0.05075975073168155</v>
       </c>
       <c r="J14">
-        <v>0.04870750701955932</v>
+        <v>0.05075975073168155</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>7.07906466649016</v>
+        <v>23.63579766666667</v>
       </c>
       <c r="N14">
-        <v>7.07906466649016</v>
+        <v>70.907393</v>
       </c>
       <c r="O14">
-        <v>0.02217750240725959</v>
+        <v>0.06827844587621175</v>
       </c>
       <c r="P14">
-        <v>0.02217750240725959</v>
+        <v>0.06827844587621175</v>
       </c>
       <c r="Q14">
-        <v>105.3266312996601</v>
+        <v>378.3395526122011</v>
       </c>
       <c r="R14">
-        <v>105.3266312996601</v>
+        <v>3405.05597350981</v>
       </c>
       <c r="S14">
-        <v>0.00108021085417789</v>
+        <v>0.003465796893023119</v>
       </c>
       <c r="T14">
-        <v>0.00108021085417789</v>
+        <v>0.003465796893023118</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>14.8786084407789</v>
+        <v>16.00705666666667</v>
       </c>
       <c r="H15">
-        <v>14.8786084407789</v>
+        <v>48.02117</v>
       </c>
       <c r="I15">
-        <v>0.04870750701955932</v>
+        <v>0.05075975073168155</v>
       </c>
       <c r="J15">
-        <v>0.04870750701955932</v>
+        <v>0.05075975073168155</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>180.914034162936</v>
+        <v>181.2883913333334</v>
       </c>
       <c r="N15">
-        <v>180.914034162936</v>
+        <v>543.865174</v>
       </c>
       <c r="O15">
-        <v>0.5667728177633442</v>
+        <v>0.5237009467675041</v>
       </c>
       <c r="P15">
-        <v>0.5667728177633442</v>
+        <v>0.523700946767504</v>
       </c>
       <c r="Q15">
-        <v>2691.749075752022</v>
+        <v>2901.893553081509</v>
       </c>
       <c r="R15">
-        <v>2691.749075752022</v>
+        <v>26117.04197773358</v>
       </c>
       <c r="S15">
-        <v>0.0276060909997035</v>
+        <v>0.02658292951586414</v>
       </c>
       <c r="T15">
-        <v>0.0276060909997035</v>
+        <v>0.02658292951586413</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>14.8786084407789</v>
+        <v>16.00705666666667</v>
       </c>
       <c r="H16">
-        <v>14.8786084407789</v>
+        <v>48.02117</v>
       </c>
       <c r="I16">
-        <v>0.04870750701955932</v>
+        <v>0.05075975073168155</v>
       </c>
       <c r="J16">
-        <v>0.04870750701955932</v>
+        <v>0.05075975073168155</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>101.162170664531</v>
+        <v>111.1005463333333</v>
       </c>
       <c r="N16">
-        <v>101.162170664531</v>
+        <v>333.301639</v>
       </c>
       <c r="O16">
-        <v>0.3169238295076338</v>
+        <v>0.3209442197221123</v>
       </c>
       <c r="P16">
-        <v>0.3169238295076338</v>
+        <v>0.3209442197221123</v>
       </c>
       <c r="Q16">
-        <v>1505.152326336806</v>
+        <v>1778.392740855292</v>
       </c>
       <c r="R16">
-        <v>1505.152326336806</v>
+        <v>16005.53466769763</v>
       </c>
       <c r="S16">
-        <v>0.01543656965040869</v>
+        <v>0.01629104859186846</v>
       </c>
       <c r="T16">
-        <v>0.01543656965040869</v>
+        <v>0.01629104859186845</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>14.8786084407789</v>
+        <v>16.00705666666667</v>
       </c>
       <c r="H17">
-        <v>14.8786084407789</v>
+        <v>48.02117</v>
       </c>
       <c r="I17">
-        <v>0.04870750701955932</v>
+        <v>0.05075975073168155</v>
       </c>
       <c r="J17">
-        <v>0.04870750701955932</v>
+        <v>0.05075975073168155</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>30.0449964554177</v>
+        <v>30.14303933333333</v>
       </c>
       <c r="N17">
-        <v>30.0449964554177</v>
+        <v>90.42911799999999</v>
       </c>
       <c r="O17">
-        <v>0.0941258503217627</v>
+        <v>0.08707638763417187</v>
       </c>
       <c r="P17">
-        <v>0.0941258503217627</v>
+        <v>0.08707638763417187</v>
       </c>
       <c r="Q17">
-        <v>447.0277378647499</v>
+        <v>482.5013387142288</v>
       </c>
       <c r="R17">
-        <v>447.0277378647499</v>
+        <v>4342.51204842806</v>
       </c>
       <c r="S17">
-        <v>0.004584635515269246</v>
+        <v>0.004419975730925842</v>
       </c>
       <c r="T17">
-        <v>0.004584635515269246</v>
+        <v>0.004419975730925842</v>
       </c>
     </row>
   </sheetData>
